--- a/database.xlsx
+++ b/database.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="112">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -166,557 +166,195 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Terceiro</t>
-  </si>
-  <si>
-    <t>6 horas</t>
-  </si>
-  <si>
     <t>Amigos</t>
   </si>
   <si>
     <t>4 horas</t>
   </si>
   <si>
+    <t>É um avanço da tecnologia que está melhorando a vida das pessoas</t>
+  </si>
+  <si>
+    <t>Estou entusiasmado(a) e quero saber muito mais</t>
+  </si>
+  <si>
+    <t>Ocasionalmente</t>
+  </si>
+  <si>
+    <t>Família</t>
+  </si>
+  <si>
+    <t>Desde os 8 anos</t>
+  </si>
+  <si>
+    <t>Computador/notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 anos </t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>Desde 2019</t>
+  </si>
+  <si>
+    <t>9 anos.</t>
+  </si>
+  <si>
+    <t>10 anos</t>
+  </si>
+  <si>
+    <t>Só atrapalha a vida das pessoas que agora têm que aprender muito mais para poder fazer as mesmas coisas.</t>
+  </si>
+  <si>
+    <t>15 anos</t>
+  </si>
+  <si>
+    <t>Desde 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 anos </t>
+  </si>
+  <si>
+    <t>Não sei</t>
+  </si>
+  <si>
+    <t>Desde os 5 anos</t>
+  </si>
+  <si>
     <t>2 horas</t>
   </si>
   <si>
-    <t>12 horas</t>
-  </si>
-  <si>
-    <t>É um avanço da tecnologia que está melhorando a vida das pessoas</t>
-  </si>
-  <si>
-    <t>Estou entusiasmado(a) e quero saber muito mais</t>
-  </si>
-  <si>
-    <t>Ocasionalmente</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>Família</t>
-  </si>
-  <si>
-    <t>Desde os 8 anos</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Computador/notebook</t>
-  </si>
-  <si>
-    <t>7h</t>
-  </si>
-  <si>
-    <t>1°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 anos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 horas </t>
-  </si>
-  <si>
-    <t>Sempre</t>
-  </si>
-  <si>
-    <t>4 semestre</t>
-  </si>
-  <si>
-    <t>Acima dos 7mil</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>Desde 2019</t>
-  </si>
-  <si>
-    <t>9h</t>
-  </si>
-  <si>
-    <t>1500-2000</t>
-  </si>
-  <si>
-    <t>9 anos.</t>
-  </si>
-  <si>
-    <t>10 anos</t>
-  </si>
-  <si>
-    <t>Só atrapalha a vida das pessoas que agora têm que aprender muito mais para poder fazer as mesmas coisas.</t>
-  </si>
-  <si>
-    <t>15 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 salários </t>
-  </si>
-  <si>
-    <t>Desde 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segundo semestre </t>
-  </si>
-  <si>
-    <t>2000 ~ 2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 anos </t>
-  </si>
-  <si>
-    <t>10 horas +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefiro não declarar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 horas em média </t>
-  </si>
-  <si>
-    <t>Desde os 5 anos</t>
-  </si>
-  <si>
-    <t>Desde os 7 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não sei, não tenho noção </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 semestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 horas </t>
-  </si>
-  <si>
-    <t>5 hrs</t>
-  </si>
-  <si>
     <t>19 anos</t>
   </si>
   <si>
-    <t>De 6 a 7 salários mínimos</t>
-  </si>
-  <si>
     <t>Desde 2010</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>1500~3000</t>
-  </si>
-  <si>
-    <t>~6</t>
-  </si>
-  <si>
     <t>Muito</t>
   </si>
   <si>
-    <t>3~5</t>
-  </si>
-  <si>
-    <t>6~9 horas</t>
-  </si>
-  <si>
-    <t>ate 1.500</t>
-  </si>
-  <si>
-    <t>3 h</t>
-  </si>
-  <si>
     <t xml:space="preserve">desde sempre </t>
   </si>
   <si>
-    <t xml:space="preserve">3 ou mais </t>
-  </si>
-  <si>
-    <t>18 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeiro </t>
-  </si>
-  <si>
     <t xml:space="preserve">12 anos </t>
   </si>
   <si>
-    <t xml:space="preserve">6 horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 horas </t>
-  </si>
-  <si>
     <t>6 anos</t>
   </si>
   <si>
-    <t>4º</t>
-  </si>
-  <si>
-    <t>6k-7k</t>
-  </si>
-  <si>
-    <t>2-3 horas</t>
-  </si>
-  <si>
     <t>Desde criança</t>
   </si>
   <si>
-    <t>8 horas</t>
-  </si>
-  <si>
-    <t>2022.2</t>
-  </si>
-  <si>
-    <t>11h</t>
-  </si>
-  <si>
     <t>desde os 9 anos</t>
   </si>
   <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
     <t>12 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">2 salários </t>
-  </si>
-  <si>
     <t>8 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">1 semestre </t>
-  </si>
-  <si>
     <t>Desde os 10</t>
   </si>
   <si>
-    <t xml:space="preserve">1-2 horas </t>
-  </si>
-  <si>
-    <t>Umas 15 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-3 salários mínimos </t>
-  </si>
-  <si>
     <t>9 anos</t>
   </si>
   <si>
-    <t>7º</t>
-  </si>
-  <si>
     <t>Noturno</t>
   </si>
   <si>
     <t xml:space="preserve">Desde que era criança </t>
   </si>
   <si>
-    <t xml:space="preserve">4 horas diárias </t>
-  </si>
-  <si>
-    <t>6 semestre</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>13 anoa</t>
   </si>
   <si>
-    <t>14h</t>
-  </si>
-  <si>
-    <t>5 horas</t>
-  </si>
-  <si>
     <t>9 horas</t>
   </si>
   <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>18 horas</t>
-  </si>
-  <si>
-    <t>9°</t>
-  </si>
-  <si>
     <t>Há 10 nos</t>
   </si>
   <si>
-    <t>24h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mais que 4 salário mínimos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 horas </t>
-  </si>
-  <si>
     <t>A mais de 10 anos</t>
   </si>
   <si>
-    <t>2 horas dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mais que 4 horas </t>
-  </si>
-  <si>
-    <t>8°semesstre</t>
-  </si>
-  <si>
     <t>Pouco tempo</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>18 anos</t>
   </si>
   <si>
-    <t>4 h</t>
-  </si>
-  <si>
     <t>10 horas</t>
   </si>
   <si>
-    <t>4°</t>
-  </si>
-  <si>
-    <t>O tempo todo</t>
-  </si>
-  <si>
-    <t>8°</t>
-  </si>
-  <si>
     <t>16 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">Um salário mínimo </t>
-  </si>
-  <si>
     <t>Desde criança (7-8a)</t>
   </si>
   <si>
-    <t>12 ou mais</t>
-  </si>
-  <si>
     <t>Mais de 10 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">Segundo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meio salário </t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>2anos</t>
   </si>
   <si>
     <t xml:space="preserve">5 anos </t>
   </si>
   <si>
-    <t>10 hrs</t>
-  </si>
-  <si>
-    <t>Primeiro</t>
-  </si>
-  <si>
     <t>3 anos</t>
   </si>
   <si>
-    <t>4 hrs</t>
-  </si>
-  <si>
-    <t>14 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023.1 ou primeiro </t>
-  </si>
-  <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
-    <t>12h no mínimo</t>
-  </si>
-  <si>
     <t>13 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">Dois salários mínimos </t>
-  </si>
-  <si>
     <t xml:space="preserve">18 anos </t>
   </si>
   <si>
-    <t xml:space="preserve">4 horas por dia </t>
-  </si>
-  <si>
-    <t>1semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salário mínimo </t>
-  </si>
-  <si>
     <t>uns 10 anos</t>
   </si>
   <si>
-    <t xml:space="preserve">muita horas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 salário mínimo </t>
-  </si>
-  <si>
     <t xml:space="preserve">6 anos </t>
   </si>
   <si>
-    <t>8 semestre</t>
-  </si>
-  <si>
-    <t>8horas</t>
-  </si>
-  <si>
     <t>Há muito tempo</t>
   </si>
   <si>
-    <t>+/-8horas</t>
-  </si>
-  <si>
-    <t>19horas</t>
-  </si>
-  <si>
-    <t>1:30</t>
-  </si>
-  <si>
     <t>Muito tempo</t>
   </si>
   <si>
-    <t>1:00</t>
-  </si>
-  <si>
-    <t>4horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,5 salário mínimo </t>
-  </si>
-  <si>
-    <t>15h (o celular ta 24h conectado)</t>
-  </si>
-  <si>
     <t>20 anos</t>
   </si>
   <si>
-    <t>Não sei.</t>
-  </si>
-  <si>
-    <t>Não tenho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Muito tempo </t>
   </si>
   <si>
-    <t>Não sei</t>
-  </si>
-  <si>
-    <t>O dia todo.</t>
-  </si>
-  <si>
-    <t>14 horas.</t>
-  </si>
-  <si>
-    <t>5°</t>
-  </si>
-  <si>
-    <t>7hr</t>
-  </si>
-  <si>
     <t>Quatro anos</t>
   </si>
   <si>
-    <t>7 hr</t>
-  </si>
-  <si>
-    <t>15 hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2° semestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/9 horas </t>
-  </si>
-  <si>
     <t>Alguns anos</t>
   </si>
   <si>
-    <t>4/5 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por volta de 12 horas </t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Desde 2008</t>
   </si>
   <si>
-    <t>7°</t>
-  </si>
-  <si>
-    <t>3-4h</t>
-  </si>
-  <si>
-    <t>o dia todo</t>
-  </si>
-  <si>
     <t>Uns 7 anos</t>
   </si>
   <si>
     <t>14 anos</t>
   </si>
   <si>
-    <t>1,5 salário</t>
-  </si>
-  <si>
-    <t>8 hrs</t>
-  </si>
-  <si>
     <t>Mais de 13 anos</t>
-  </si>
-  <si>
-    <t>3 hrs por dia</t>
-  </si>
-  <si>
-    <t>13h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -745,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -757,21 +395,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -993,7 +616,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="44" width="18.88"/>
+    <col customWidth="1" min="1" max="34" width="18.88"/>
+    <col customWidth="1" min="35" max="35" width="74.5"/>
+    <col customWidth="1" min="36" max="44" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1217,10 +842,10 @@
       <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="4">
         <v>2100.0</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1229,23 +854,23 @@
       <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>55</v>
+      <c r="L3" s="4">
+        <v>2.0</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>56</v>
+      <c r="N3" s="4">
+        <v>12.0</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>43</v>
@@ -1269,10 +894,10 @@
         <v>43</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>43</v>
@@ -1284,22 +909,22 @@
         <v>46</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1312,10 +937,10 @@
       <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="4">
         <v>6000.0</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1324,23 +949,23 @@
       <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
+      <c r="H4" s="4">
+        <v>5.0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="N4" s="4">
+        <v>7.0</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>43</v>
@@ -1364,19 +989,19 @@
         <v>43</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF4" s="4" t="s">
         <v>47</v>
@@ -1407,8 +1032,8 @@
       <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
+      <c r="D5" s="4">
+        <v>1.0</v>
       </c>
       <c r="E5" s="4">
         <v>1200.0</v>
@@ -1423,19 +1048,19 @@
         <v>4.0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.0</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>69</v>
+      <c r="N5" s="4">
+        <v>13.0</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>40</v>
@@ -1459,22 +1084,22 @@
         <v>43</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="4" t="s">
         <v>47</v>
@@ -1502,11 +1127,11 @@
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>72</v>
+      <c r="D6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7000.0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
@@ -1514,23 +1139,23 @@
       <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>73</v>
+      <c r="H6" s="4">
+        <v>6.0</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>60</v>
+      <c r="L6" s="4">
+        <v>5.0</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>75</v>
+      <c r="N6" s="4">
+        <v>9.0</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>43</v>
@@ -1557,31 +1182,31 @@
         <v>44</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>46</v>
@@ -1613,7 +1238,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J7" s="4">
         <v>8.0</v>
@@ -1622,7 +1247,7 @@
         <v>1.0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N7" s="4">
         <v>14.0</v>
@@ -1649,31 +1274,31 @@
         <v>43</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ7" s="4" t="s">
         <v>46</v>
@@ -1695,8 +1320,8 @@
       <c r="D8" s="4">
         <v>5.0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="E8" s="4">
+        <v>2000.0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -1711,13 +1336,13 @@
         <v>41</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L8" s="4">
         <v>6.0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N8" s="4">
         <v>8.0</v>
@@ -1744,37 +1369,37 @@
         <v>43</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1806,13 +1431,13 @@
         <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L9" s="4">
         <v>10.0</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N9" s="4">
         <v>15.0</v>
@@ -1839,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>45</v>
@@ -1857,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>49</v>
@@ -1869,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1898,10 +1523,10 @@
         <v>4.0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L10" s="4">
         <v>4.0</v>
@@ -1937,7 +1562,7 @@
         <v>44</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>40</v>
@@ -1949,10 +1574,10 @@
         <v>46</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="4" t="s">
         <v>47</v>
@@ -1961,7 +1586,7 @@
         <v>47</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="4" t="s">
         <v>46</v>
@@ -1980,8 +1605,8 @@
       <c r="D11" s="4">
         <v>5.0</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>81</v>
+      <c r="E11" s="4">
+        <v>3300.0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -1993,10 +1618,10 @@
         <v>12.0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="L11" s="4">
         <v>5.0</v>
@@ -2029,10 +1654,10 @@
         <v>43</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>40</v>
@@ -2041,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>47</v>
@@ -2072,11 +1697,11 @@
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
+      <c r="D12" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2500.0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
@@ -2084,23 +1709,23 @@
       <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>85</v>
+      <c r="H12" s="4">
+        <v>2.0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2.0</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>87</v>
+      <c r="N12" s="4">
+        <v>10.0</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>40</v>
@@ -2124,16 +1749,16 @@
         <v>43</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="4" t="s">
         <v>46</v>
@@ -2148,7 +1773,7 @@
         <v>47</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ12" s="4" t="s">
         <v>47</v>
@@ -2171,7 +1796,7 @@
         <v>6.0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>39</v>
@@ -2179,23 +1804,23 @@
       <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>89</v>
+      <c r="H13" s="4">
+        <v>6.0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7.0</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>43</v>
@@ -2219,10 +1844,10 @@
         <v>43</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>40</v>
@@ -2231,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>49</v>
@@ -2240,7 +1865,7 @@
         <v>47</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="4" t="s">
         <v>48</v>
@@ -2249,7 +1874,7 @@
         <v>48</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2262,8 +1887,8 @@
       <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
+      <c r="D14" s="4">
+        <v>5.0</v>
       </c>
       <c r="E14" s="4">
         <v>3000.0</v>
@@ -2274,23 +1899,23 @@
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>94</v>
+      <c r="H14" s="4">
+        <v>3.0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5.0</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>40</v>
@@ -2314,19 +1939,19 @@
         <v>43</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>48</v>
@@ -2338,7 +1963,7 @@
         <v>46</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ14" s="4" t="s">
         <v>49</v>
@@ -2373,10 +1998,10 @@
         <v>4.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L15" s="4">
         <v>3.0</v>
@@ -2409,10 +2034,10 @@
         <v>43</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>40</v>
@@ -2427,7 +2052,7 @@
         <v>46</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH15" s="4" t="s">
         <v>46</v>
@@ -2468,10 +2093,10 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L16" s="4">
         <v>2.0</v>
@@ -2504,16 +2129,16 @@
         <v>43</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>47</v>
@@ -2522,13 +2147,13 @@
         <v>48</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ16" s="4" t="s">
         <v>46</v>
@@ -2550,8 +2175,8 @@
       <c r="D17" s="4">
         <v>3.0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>97</v>
+      <c r="E17" s="4">
+        <v>9240.0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>39</v>
@@ -2559,23 +2184,23 @@
       <c r="G17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>75</v>
+      <c r="H17" s="4">
+        <v>9.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="L17" s="4">
+        <v>4.0</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4.0</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>40</v>
@@ -2599,19 +2224,19 @@
         <v>43</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="4" t="s">
         <v>49</v>
@@ -2642,11 +2267,11 @@
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>100</v>
+      <c r="D18" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3000.0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>39</v>
@@ -2654,23 +2279,23 @@
       <c r="G18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>101</v>
+      <c r="H18" s="4">
+        <v>6.0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4.0</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="N18" s="4">
+        <v>8.0</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>40</v>
@@ -2694,10 +2319,10 @@
         <v>43</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>40</v>
@@ -2706,10 +2331,10 @@
         <v>47</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG18" s="4" t="s">
         <v>46</v>
@@ -2724,7 +2349,7 @@
         <v>48</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2740,8 +2365,8 @@
       <c r="D19" s="4">
         <v>8.0</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>105</v>
+      <c r="E19" s="4">
+        <v>1500.0</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>39</v>
@@ -2749,23 +2374,23 @@
       <c r="G19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>106</v>
+      <c r="H19" s="4">
+        <v>3.0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3.0</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>109</v>
+      <c r="N19" s="4">
+        <v>18.0</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>43</v>
@@ -2789,10 +2414,10 @@
         <v>40</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>40</v>
@@ -2807,7 +2432,7 @@
         <v>47</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>47</v>
@@ -2816,10 +2441,10 @@
         <v>48</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -2832,8 +2457,8 @@
       <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>110</v>
+      <c r="D20" s="4">
+        <v>1.0</v>
       </c>
       <c r="E20" s="4">
         <v>2200.0</v>
@@ -2851,16 +2476,16 @@
         <v>41</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>112</v>
+        <v>75</v>
+      </c>
+      <c r="L20" s="4">
+        <v>6.0</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="N20" s="4">
+        <v>8.0</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>40</v>
@@ -2884,10 +2509,10 @@
         <v>43</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC20" s="4" t="s">
         <v>43</v>
@@ -2902,7 +2527,7 @@
         <v>47</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>48</v>
@@ -2911,7 +2536,7 @@
         <v>49</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK20" s="4" t="s">
         <v>46</v>
@@ -2943,10 +2568,10 @@
         <v>6.0</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L21" s="4">
         <v>6.0</v>
@@ -2979,10 +2604,10 @@
         <v>43</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="4" t="s">
         <v>43</v>
@@ -2994,13 +2619,13 @@
         <v>46</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>48</v>
@@ -3009,7 +2634,7 @@
         <v>48</v>
       </c>
       <c r="AK21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3038,10 +2663,10 @@
         <v>3.0</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="L22" s="4">
         <v>3.0</v>
@@ -3074,10 +2699,10 @@
         <v>43</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>40</v>
@@ -3092,7 +2717,7 @@
         <v>48</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH22" s="4" t="s">
         <v>46</v>
@@ -3117,11 +2742,11 @@
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>116</v>
+      <c r="D23" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7000.0</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>39</v>
@@ -3129,23 +2754,23 @@
       <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>117</v>
+      <c r="H23" s="4">
+        <v>3.0</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3.0</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>119</v>
+      <c r="N23" s="4">
+        <v>8.0</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>43</v>
@@ -3169,10 +2794,10 @@
         <v>43</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC23" s="4" t="s">
         <v>40</v>
@@ -3184,7 +2809,7 @@
         <v>47</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG23" s="4" t="s">
         <v>46</v>
@@ -3193,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ23" s="4" t="s">
         <v>48</v>
@@ -3228,7 +2853,7 @@
         <v>2.0</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J24" s="4">
         <v>15.0</v>
@@ -3264,7 +2889,7 @@
         <v>43</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB24" s="4" t="s">
         <v>45</v>
@@ -3288,13 +2913,13 @@
         <v>46</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3307,8 +2932,8 @@
       <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>120</v>
+      <c r="D25" s="4">
+        <v>2.0</v>
       </c>
       <c r="E25" s="4">
         <v>4500.0</v>
@@ -3319,23 +2944,23 @@
       <c r="G25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>121</v>
+      <c r="H25" s="4">
+        <v>11.0</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>123</v>
+        <v>78</v>
+      </c>
+      <c r="L25" s="4">
+        <v>8.0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
+      </c>
+      <c r="N25" s="4">
+        <v>16.0</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>43</v>
@@ -3359,10 +2984,10 @@
         <v>40</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC25" s="4" t="s">
         <v>40</v>
@@ -3371,10 +2996,10 @@
         <v>46</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>47</v>
@@ -3421,7 +3046,7 @@
         <v>41</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="L26" s="4">
         <v>7.0</v>
@@ -3454,7 +3079,7 @@
         <v>43</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB26" s="4" t="s">
         <v>45</v>
@@ -3466,19 +3091,19 @@
         <v>47</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ26" s="4" t="s">
         <v>46</v>
@@ -3500,7 +3125,7 @@
       <c r="D27" s="4">
         <v>6.0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>1200.0</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -3516,7 +3141,7 @@
         <v>41</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L27" s="4">
         <v>8.0</v>
@@ -3549,7 +3174,7 @@
         <v>43</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AB27" s="4" t="s">
         <v>45</v>
@@ -3558,19 +3183,19 @@
         <v>40</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="4" t="s">
         <v>49</v>
@@ -3579,7 +3204,7 @@
         <v>49</v>
       </c>
       <c r="AK27" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -3608,10 +3233,10 @@
         <v>3.0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L28" s="4">
         <v>3.0</v>
@@ -3662,13 +3287,13 @@
         <v>46</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ28" s="4" t="s">
         <v>48</v>
@@ -3690,8 +3315,8 @@
       <c r="D29" s="4">
         <v>8.0</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>126</v>
+      <c r="E29" s="4">
+        <v>3300.0</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>39</v>
@@ -3703,10 +3328,10 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="L29" s="4">
         <v>1.0</v>
@@ -3739,10 +3364,10 @@
         <v>43</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC29" s="4" t="s">
         <v>40</v>
@@ -3751,7 +3376,7 @@
         <v>46</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF29" s="4" t="s">
         <v>48</v>
@@ -3782,8 +3407,8 @@
       <c r="C30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>128</v>
+      <c r="D30" s="4">
+        <v>1.0</v>
       </c>
       <c r="E30" s="4">
         <v>5000.0</v>
@@ -3794,23 +3419,23 @@
       <c r="G30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>54</v>
+      <c r="H30" s="4">
+        <v>4.0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>130</v>
+        <v>81</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.0</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>131</v>
+      <c r="N30" s="4">
+        <v>15.0</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>43</v>
@@ -3837,7 +3462,7 @@
         <v>44</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC30" s="4" t="s">
         <v>43</v>
@@ -3846,13 +3471,13 @@
         <v>46</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="4" t="s">
         <v>47</v>
@@ -3864,7 +3489,7 @@
         <v>48</v>
       </c>
       <c r="AK30" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -3880,8 +3505,8 @@
       <c r="D31" s="4">
         <v>7.0</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>132</v>
+      <c r="E31" s="4">
+        <v>3960.0</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>39</v>
@@ -3893,10 +3518,10 @@
         <v>2.0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="L31" s="4">
         <v>2.0</v>
@@ -3938,7 +3563,7 @@
         <v>40</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE31" s="4" t="s">
         <v>48</v>
@@ -3988,10 +3613,10 @@
         <v>2.0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="L32" s="4">
         <v>5.0</v>
@@ -4027,7 +3652,7 @@
         <v>44</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC32" s="4" t="s">
         <v>43</v>
@@ -4042,13 +3667,13 @@
         <v>48</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH32" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ32" s="4" t="s">
         <v>49</v>
@@ -4067,14 +3692,14 @@
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>134</v>
+      <c r="D33" s="4">
+        <v>7.0</v>
       </c>
       <c r="E33" s="4">
         <v>2500.0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>43</v>
@@ -4083,10 +3708,10 @@
         <v>1.0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="L33" s="4">
         <v>1.0</v>
@@ -4094,8 +3719,8 @@
       <c r="M33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>137</v>
+      <c r="N33" s="4">
+        <v>4.0</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>43</v>
@@ -4134,7 +3759,7 @@
         <v>46</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="4" t="s">
         <v>47</v>
@@ -4149,7 +3774,7 @@
         <v>49</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -4162,35 +3787,35 @@
       <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>138</v>
+      <c r="D34" s="4">
+        <v>6.0</v>
       </c>
       <c r="E34" s="4">
         <v>1200.0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>139</v>
+      <c r="H34" s="4">
+        <v>1.0</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>139</v>
+        <v>85</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>141</v>
+        <v>58</v>
+      </c>
+      <c r="N34" s="4">
+        <v>14.0</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>43</v>
@@ -4214,16 +3839,16 @@
         <v>43</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>46</v>
@@ -4241,7 +3866,7 @@
         <v>48</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK34" s="4" t="s">
         <v>46</v>
@@ -4257,35 +3882,35 @@
       <c r="C35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1473.2</v>
+      <c r="D35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1473.0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>142</v>
+      <c r="H35" s="4">
+        <v>5.0</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>144</v>
+        <v>86</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1.0</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>145</v>
+      <c r="N35" s="4">
+        <v>18.0</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>43</v>
@@ -4309,10 +3934,10 @@
         <v>43</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>43</v>
@@ -4321,10 +3946,10 @@
         <v>48</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG35" s="4" t="s">
         <v>47</v>
@@ -4339,7 +3964,7 @@
         <v>48</v>
       </c>
       <c r="AK35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -4352,14 +3977,14 @@
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>146</v>
+      <c r="D36" s="4">
+        <v>9.0</v>
       </c>
       <c r="E36" s="4">
         <v>2600.0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>43</v>
@@ -4368,19 +3993,19 @@
         <v>2.0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2.0</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="4" t="s">
-        <v>148</v>
+      <c r="N36" s="4">
+        <v>24.0</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>43</v>
@@ -4404,7 +4029,7 @@
         <v>43</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB36" s="4" t="s">
         <v>45</v>
@@ -4416,7 +4041,7 @@
         <v>46</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF36" s="4" t="s">
         <v>48</v>
@@ -4450,32 +4075,32 @@
       <c r="D37" s="4">
         <v>6.0</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>149</v>
+      <c r="E37" s="4">
+        <v>5280.0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>150</v>
+      <c r="H37" s="4">
+        <v>7.0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>152</v>
+        <v>88</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2.0</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="4" t="s">
-        <v>153</v>
+      <c r="N37" s="4">
+        <v>4.0</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>40</v>
@@ -4499,7 +4124,7 @@
         <v>43</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB37" s="4" t="s">
         <v>45</v>
@@ -4511,13 +4136,13 @@
         <v>47</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH37" s="4" t="s">
         <v>49</v>
@@ -4542,14 +4167,14 @@
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>154</v>
+      <c r="D38" s="4">
+        <v>8.0</v>
       </c>
       <c r="E38" s="4">
         <v>1700.0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>43</v>
@@ -4558,13 +4183,13 @@
         <v>3.0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.5</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>42</v>
@@ -4594,7 +4219,7 @@
         <v>43</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB38" s="4" t="s">
         <v>45</v>
@@ -4640,11 +4265,11 @@
       <c r="D39" s="4">
         <v>8.0</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>10000.0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>40</v>
@@ -4653,19 +4278,19 @@
         <v>1.0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4.0</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="4" t="s">
-        <v>106</v>
+      <c r="N39" s="4">
+        <v>3.0</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>40</v>
@@ -4698,16 +4323,16 @@
         <v>40</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="4" t="s">
         <v>48</v>
@@ -4716,10 +4341,10 @@
         <v>48</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -4735,32 +4360,32 @@
       <c r="D40" s="4">
         <v>8.0</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>10000.0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>144</v>
+      <c r="H40" s="4">
+        <v>1.0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>55</v>
+        <v>91</v>
+      </c>
+      <c r="L40" s="4">
+        <v>2.0</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>159</v>
+      <c r="N40" s="4">
+        <v>10.0</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>43</v>
@@ -4784,7 +4409,7 @@
         <v>43</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB40" s="4" t="s">
         <v>45</v>
@@ -4796,7 +4421,7 @@
         <v>46</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF40" s="4" t="s">
         <v>48</v>
@@ -4805,7 +4430,7 @@
         <v>46</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI40" s="4" t="s">
         <v>48</v>
@@ -4827,35 +4452,35 @@
       <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="4">
         <v>2000.0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>55</v>
+      <c r="H41" s="4">
+        <v>2.0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1.0</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>161</v>
+      <c r="N41" s="4">
+        <v>24.0</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>43</v>
@@ -4879,7 +4504,7 @@
         <v>43</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB41" s="4" t="s">
         <v>45</v>
@@ -4894,10 +4519,10 @@
         <v>46</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH41" s="4" t="s">
         <v>46</v>
@@ -4909,7 +4534,7 @@
         <v>48</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -4922,8 +4547,8 @@
       <c r="C42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>162</v>
+      <c r="D42" s="4">
+        <v>8.0</v>
       </c>
       <c r="E42" s="4">
         <v>15000.0</v>
@@ -4938,16 +4563,16 @@
         <v>3.0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="L42" s="4">
         <v>3.0</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N42" s="4">
         <v>8.0</v>
@@ -4974,19 +4599,19 @@
         <v>43</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF42" s="4" t="s">
         <v>48</v>
@@ -4995,7 +4620,7 @@
         <v>46</v>
       </c>
       <c r="AH42" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI42" s="4" t="s">
         <v>48</v>
@@ -5004,7 +4629,7 @@
         <v>48</v>
       </c>
       <c r="AK42" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -5024,7 +4649,7 @@
         <v>2500.0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>43</v>
@@ -5033,7 +4658,7 @@
         <v>6.0</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J43" s="4">
         <v>10.0</v>
@@ -5069,10 +4694,10 @@
         <v>43</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC43" s="4" t="s">
         <v>40</v>
@@ -5081,22 +4706,22 @@
         <v>47</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF43" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG43" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK43" s="4" t="s">
         <v>47</v>
@@ -5115,11 +4740,11 @@
       <c r="D44" s="4">
         <v>5.0</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>164</v>
+      <c r="E44" s="4">
+        <v>1320.0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>40</v>
@@ -5128,10 +4753,10 @@
         <v>6.0</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="L44" s="4">
         <v>4.0</v>
@@ -5139,8 +4764,8 @@
       <c r="M44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N44" s="4" t="s">
-        <v>166</v>
+      <c r="N44" s="4">
+        <v>12.0</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>43</v>
@@ -5164,7 +4789,7 @@
         <v>43</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB44" s="4" t="s">
         <v>45</v>
@@ -5176,7 +4801,7 @@
         <v>47</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF44" s="4" t="s">
         <v>48</v>
@@ -5191,10 +4816,10 @@
         <v>49</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -5223,10 +4848,10 @@
         <v>1.0</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="L45" s="4">
         <v>1.0</v>
@@ -5259,16 +4884,16 @@
         <v>43</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC45" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE45" s="4" t="s">
         <v>48</v>
@@ -5302,26 +4927,26 @@
       <c r="C46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>169</v>
+      <c r="D46" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>660.0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>170</v>
+      <c r="H46" s="4">
+        <v>2.0</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L46" s="4">
         <v>1.0</v>
@@ -5329,8 +4954,8 @@
       <c r="M46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N46" s="4" t="s">
-        <v>60</v>
+      <c r="N46" s="4">
+        <v>5.0</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>40</v>
@@ -5354,19 +4979,19 @@
         <v>40</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB46" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD46" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF46" s="4" t="s">
         <v>48</v>
@@ -5400,23 +5025,23 @@
       <c r="D47" s="4">
         <v>7.0</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="4">
         <v>3000.0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>95</v>
+      <c r="H47" s="4">
+        <v>5.0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="L47" s="4">
         <v>2.0</v>
@@ -5424,8 +5049,8 @@
       <c r="M47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>173</v>
+      <c r="N47" s="4">
+        <v>10.0</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>43</v>
@@ -5464,7 +5089,7 @@
         <v>46</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG47" s="4" t="s">
         <v>47</v>
@@ -5473,13 +5098,13 @@
         <v>46</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ47" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -5492,8 +5117,8 @@
       <c r="C48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>174</v>
+      <c r="D48" s="4">
+        <v>1.0</v>
       </c>
       <c r="E48" s="4">
         <v>1312.0</v>
@@ -5504,23 +5129,23 @@
       <c r="G48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>173</v>
+      <c r="H48" s="4">
+        <v>10.0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>176</v>
+        <v>97</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4.0</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>177</v>
+      <c r="N48" s="4">
+        <v>14.0</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>40</v>
@@ -5544,7 +5169,7 @@
         <v>43</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB48" s="4" t="s">
         <v>45</v>
@@ -5553,13 +5178,13 @@
         <v>43</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG48" s="4" t="s">
         <v>47</v>
@@ -5568,13 +5193,13 @@
         <v>48</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -5587,10 +5212,10 @@
       <c r="C49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="4">
         <v>1500.0</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -5599,23 +5224,23 @@
       <c r="G49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>55</v>
+      <c r="H49" s="4">
+        <v>2.0</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>179</v>
+        <v>67</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2.0</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>180</v>
+      <c r="N49" s="4">
+        <v>3.0</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>40</v>
@@ -5639,10 +5264,10 @@
         <v>43</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB49" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC49" s="4" t="s">
         <v>43</v>
@@ -5666,7 +5291,7 @@
         <v>48</v>
       </c>
       <c r="AJ49" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK49" s="4" t="s">
         <v>46</v>
@@ -5689,7 +5314,7 @@
         <v>2000.0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>43</v>
@@ -5698,7 +5323,7 @@
         <v>2.0</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J50" s="4">
         <v>2.0</v>
@@ -5734,10 +5359,10 @@
         <v>43</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB50" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC50" s="4" t="s">
         <v>43</v>
@@ -5746,13 +5371,13 @@
         <v>46</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH50" s="4" t="s">
         <v>48</v>
@@ -5764,7 +5389,7 @@
         <v>48</v>
       </c>
       <c r="AK50" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -5784,28 +5409,28 @@
         <v>5000.0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>54</v>
+      <c r="H51" s="4">
+        <v>4.0</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4.0</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>181</v>
+      <c r="N51" s="4">
+        <v>12.0</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>43</v>
@@ -5829,10 +5454,10 @@
         <v>40</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB51" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC51" s="4" t="s">
         <v>43</v>
@@ -5841,7 +5466,7 @@
         <v>46</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF51" s="4" t="s">
         <v>49</v>
@@ -5853,13 +5478,13 @@
         <v>48</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ51" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AK51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -5872,62 +5497,62 @@
       <c r="C52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="8">
+      <c r="D52" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E52" s="4">
         <v>2640.0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>54</v>
+      <c r="H52" s="4">
+        <v>4.0</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
+      </c>
+      <c r="L52" s="4">
+        <v>2.0</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB52" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB52" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="AC52" s="4" t="s">
         <v>40</v>
@@ -5939,13 +5564,13 @@
         <v>47</v>
       </c>
       <c r="AF52" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG52" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AH52" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI52" s="4" t="s">
         <v>46</v>
@@ -5970,7 +5595,7 @@
       <c r="D53" s="4">
         <v>2.0</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>2000.0</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -5983,10 +5608,10 @@
         <v>5.0</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="L53" s="4">
         <v>2.0</v>
@@ -5994,8 +5619,8 @@
       <c r="M53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N53" s="4" t="s">
-        <v>148</v>
+      <c r="N53" s="4">
+        <v>24.0</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>43</v>
@@ -6022,13 +5647,13 @@
         <v>44</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE53" s="4" t="s">
         <v>47</v>
@@ -6037,7 +5662,7 @@
         <v>47</v>
       </c>
       <c r="AG53" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH53" s="4" t="s">
         <v>46</v>
@@ -6062,11 +5687,11 @@
       <c r="C54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>183</v>
+      <c r="D54" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2640.0</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>39</v>
@@ -6078,16 +5703,16 @@
         <v>10.0</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>185</v>
+        <v>99</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4.0</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N54" s="4">
         <v>10.0</v>
@@ -6117,7 +5742,7 @@
         <v>44</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>43</v>
@@ -6129,13 +5754,13 @@
         <v>46</v>
       </c>
       <c r="AF54" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI54" s="4" t="s">
         <v>48</v>
@@ -6157,35 +5782,35 @@
       <c r="C55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>187</v>
+      <c r="D55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1320.0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>60</v>
+      <c r="H55" s="4">
+        <v>5.0</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>189</v>
+        <v>100</v>
+      </c>
+      <c r="L55" s="4">
+        <v>8.0</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N55" s="4" t="s">
-        <v>60</v>
+      <c r="N55" s="4">
+        <v>5.0</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>40</v>
@@ -6209,7 +5834,7 @@
         <v>43</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB55" s="4" t="s">
         <v>45</v>
@@ -6239,7 +5864,7 @@
         <v>49</v>
       </c>
       <c r="AK55" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -6255,8 +5880,8 @@
       <c r="D56" s="4">
         <v>5.0</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>190</v>
+      <c r="E56" s="4">
+        <v>1320.0</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>39</v>
@@ -6268,10 +5893,10 @@
         <v>2.0</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="L56" s="4">
         <v>2.0</v>
@@ -6304,16 +5929,16 @@
         <v>43</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB56" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD56" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE56" s="4" t="s">
         <v>46</v>
@@ -6325,7 +5950,7 @@
         <v>46</v>
       </c>
       <c r="AH56" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI56" s="4" t="s">
         <v>48</v>
@@ -6354,7 +5979,7 @@
         <v>600.0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>40</v>
@@ -6363,7 +5988,7 @@
         <v>4.0</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J57" s="4">
         <v>1.0</v>
@@ -6399,10 +6024,10 @@
         <v>43</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB57" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC57" s="4" t="s">
         <v>43</v>
@@ -6414,13 +6039,13 @@
         <v>48</v>
       </c>
       <c r="AF57" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG57" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AH57" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI57" s="4" t="s">
         <v>48</v>
@@ -6442,35 +6067,35 @@
       <c r="C58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="9">
+      <c r="D58" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="E58" s="4">
         <v>1500.0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>193</v>
+      <c r="H58" s="4">
+        <v>8.0</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>195</v>
+        <v>102</v>
+      </c>
+      <c r="L58" s="4">
+        <v>8.0</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>196</v>
+      <c r="N58" s="4">
+        <v>19.0</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>43</v>
@@ -6494,10 +6119,10 @@
         <v>40</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB58" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC58" s="4" t="s">
         <v>40</v>
@@ -6544,28 +6169,28 @@
         <v>5000.0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>197</v>
+      <c r="H59" s="4">
+        <v>1.5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>199</v>
+        <v>103</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1.0</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>200</v>
+        <v>58</v>
+      </c>
+      <c r="N59" s="4">
+        <v>4.0</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>43</v>
@@ -6589,7 +6214,7 @@
         <v>40</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB59" s="4" t="s">
         <v>45</v>
@@ -6601,13 +6226,13 @@
         <v>48</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF59" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG59" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH59" s="4" t="s">
         <v>48</v>
@@ -6635,11 +6260,11 @@
       <c r="D60" s="4">
         <v>9.0</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>201</v>
+      <c r="E60" s="4">
+        <v>1980.0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>43</v>
@@ -6648,19 +6273,19 @@
         <v>2.0</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L60" s="4">
         <v>2.0</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>202</v>
+        <v>58</v>
+      </c>
+      <c r="N60" s="4">
+        <v>15.0</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>43</v>
@@ -6684,10 +6309,10 @@
         <v>43</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB60" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC60" s="4" t="s">
         <v>40</v>
@@ -6699,7 +6324,7 @@
         <v>46</v>
       </c>
       <c r="AF60" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG60" s="4" t="s">
         <v>46</v>
@@ -6708,7 +6333,7 @@
         <v>48</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ60" s="4" t="s">
         <v>49</v>
@@ -6743,16 +6368,16 @@
         <v>6.0</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="L61" s="4">
         <v>3.0</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N61" s="4">
         <v>8.0</v>
@@ -6779,10 +6404,10 @@
         <v>43</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB61" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC61" s="4" t="s">
         <v>43</v>
@@ -6791,13 +6416,13 @@
         <v>46</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG61" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH61" s="4" t="s">
         <v>48</v>
@@ -6809,7 +6434,7 @@
         <v>48</v>
       </c>
       <c r="AK61" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -6826,31 +6451,31 @@
         <v>4.0</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>205</v>
+      <c r="H62" s="4">
+        <v>0.0</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N62" s="4" t="s">
-        <v>208</v>
+      <c r="N62" s="4">
+        <v>24.0</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>43</v>
@@ -6877,7 +6502,7 @@
         <v>44</v>
       </c>
       <c r="AB62" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC62" s="4" t="s">
         <v>40</v>
@@ -6889,16 +6514,16 @@
         <v>47</v>
       </c>
       <c r="AF62" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG62" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH62" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AI62" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ62" s="4" t="s">
         <v>48</v>
@@ -6924,7 +6549,7 @@
         <v>5580.0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>43</v>
@@ -6933,19 +6558,19 @@
         <v>4.0</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="L63" s="4">
         <v>4.0</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="N63" s="4">
+        <v>14.0</v>
       </c>
       <c r="O63" s="4" t="s">
         <v>43</v>
@@ -6969,10 +6594,10 @@
         <v>43</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB63" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC63" s="4" t="s">
         <v>40</v>
@@ -6984,13 +6609,13 @@
         <v>46</v>
       </c>
       <c r="AF63" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG63" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH63" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI63" s="4" t="s">
         <v>48</v>
@@ -7012,8 +6637,8 @@
       <c r="C64" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>210</v>
+      <c r="D64" s="4">
+        <v>5.0</v>
       </c>
       <c r="E64" s="4">
         <v>908.0</v>
@@ -7024,23 +6649,23 @@
       <c r="G64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>211</v>
+      <c r="H64" s="4">
+        <v>7.0</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>213</v>
+        <v>106</v>
+      </c>
+      <c r="L64" s="4">
+        <v>7.0</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>214</v>
+        <v>58</v>
+      </c>
+      <c r="N64" s="4">
+        <v>15.0</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>43</v>
@@ -7067,7 +6692,7 @@
         <v>44</v>
       </c>
       <c r="AB64" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC64" s="4" t="s">
         <v>40</v>
@@ -7076,13 +6701,13 @@
         <v>46</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF64" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AG64" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH64" s="4" t="s">
         <v>49</v>
@@ -7094,7 +6719,7 @@
         <v>49</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -7114,7 +6739,7 @@
         <v>3000.0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>40</v>
@@ -7123,10 +6748,10 @@
         <v>4.0</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="L65" s="4">
         <v>3.0</v>
@@ -7159,10 +6784,10 @@
         <v>43</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB65" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC65" s="4" t="s">
         <v>43</v>
@@ -7171,16 +6796,16 @@
         <v>46</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF65" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG65" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH65" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI65" s="4" t="s">
         <v>46</v>
@@ -7189,7 +6814,7 @@
         <v>47</v>
       </c>
       <c r="AK65" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -7202,8 +6827,8 @@
       <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>215</v>
+      <c r="D66" s="4">
+        <v>2.0</v>
       </c>
       <c r="E66" s="4">
         <v>1200.0</v>
@@ -7214,23 +6839,23 @@
       <c r="G66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>216</v>
+      <c r="H66" s="4">
+        <v>9.0</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>218</v>
+        <v>107</v>
+      </c>
+      <c r="L66" s="4">
+        <v>5.0</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N66" s="4" t="s">
-        <v>219</v>
+      <c r="N66" s="4">
+        <v>12.0</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>40</v>
@@ -7254,7 +6879,7 @@
         <v>43</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB66" s="4" t="s">
         <v>45</v>
@@ -7266,22 +6891,22 @@
         <v>46</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH66" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AI66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK66" s="4" t="s">
         <v>46</v>
@@ -7309,23 +6934,23 @@
       <c r="G67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>220</v>
+      <c r="H67" s="4">
+        <v>12.0</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="L67" s="4">
+        <v>4.0</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N67" s="4" t="s">
-        <v>141</v>
+      <c r="N67" s="4">
+        <v>14.0</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>40</v>
@@ -7349,10 +6974,10 @@
         <v>43</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC67" s="4" t="s">
         <v>40</v>
@@ -7367,10 +6992,10 @@
         <v>48</v>
       </c>
       <c r="AG67" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH67" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI67" s="4" t="s">
         <v>48</v>
@@ -7392,11 +7017,11 @@
       <c r="C68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>190</v>
+      <c r="D68" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1320.0</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>39</v>
@@ -7404,23 +7029,23 @@
       <c r="G68" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>223</v>
+      <c r="H68" s="4">
+        <v>4.0</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="L68" s="4">
+        <v>6.0</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N68" s="4" t="s">
-        <v>224</v>
+      <c r="N68" s="4">
+        <v>24.0</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>43</v>
@@ -7444,22 +7069,22 @@
         <v>43</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB68" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD68" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AF68" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG68" s="4" t="s">
         <v>46</v>
@@ -7487,35 +7112,35 @@
       <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D69" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E69" s="4">
         <v>1200.0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>63</v>
+      <c r="H69" s="4">
+        <v>2.0</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>63</v>
+        <v>109</v>
+      </c>
+      <c r="L69" s="4">
+        <v>2.0</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>124</v>
+      <c r="N69" s="4">
+        <v>16.0</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>43</v>
@@ -7539,37 +7164,37 @@
         <v>43</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB69" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AD69" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE69" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF69" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG69" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH69" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI69" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AJ69" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK69" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
@@ -7598,10 +7223,10 @@
         <v>3.0</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="L70" s="4">
         <v>4.0</v>
@@ -7634,16 +7259,16 @@
         <v>43</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB70" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC70" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD70" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AE70" s="4" t="s">
         <v>46</v>
@@ -7652,7 +7277,7 @@
         <v>48</v>
       </c>
       <c r="AG70" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH70" s="4" t="s">
         <v>48</v>
@@ -7661,7 +7286,7 @@
         <v>46</v>
       </c>
       <c r="AJ70" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK70" s="4" t="s">
         <v>48</v>
@@ -7680,8 +7305,8 @@
       <c r="D71" s="4">
         <v>1.0</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>227</v>
+      <c r="E71" s="4">
+        <v>1980.0</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>39</v>
@@ -7689,23 +7314,23 @@
       <c r="G71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>228</v>
+      <c r="H71" s="4">
+        <v>8.0</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>230</v>
+        <v>111</v>
+      </c>
+      <c r="L71" s="4">
+        <v>3.0</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>231</v>
+      <c r="N71" s="4">
+        <v>13.0</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>43</v>
@@ -7729,28 +7354,28 @@
         <v>40</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB71" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC71" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AD71" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE71" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AF71" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG71" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH71" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI71" s="4" t="s">
         <v>48</v>
@@ -7759,7 +7384,7 @@
         <v>48</v>
       </c>
       <c r="AK71" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -7779,7 +7404,7 @@
         <v>1300.0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>43</v>
@@ -7788,7 +7413,7 @@
         <v>6.0</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J72" s="4">
         <v>14.0</v>
@@ -7824,10 +7449,10 @@
         <v>43</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC72" s="4" t="s">
         <v>40</v>
